--- a/latihan_normalisasi.xlsx
+++ b/latihan_normalisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\praktik_msib\MySQL\tugas3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1106F986-41E0-40A1-A7EA-5A122BFB49B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D97C47A-C36C-4886-BFF1-5C08875D1CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7CDBC697-CD3E-43B7-99AD-F0BEE18FD8AA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
   <si>
     <t>no_pengajuan</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>keterangan</t>
+  </si>
+  <si>
+    <t>tabel divisi</t>
+  </si>
+  <si>
+    <t>id_divisi</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,12 +195,16 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0E420A-8556-45A1-AF62-59BE447CE3DE}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56:H59"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,6 +537,7 @@
     <col min="8" max="8" width="10.36328125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1131,7 +1142,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>3</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>4</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>5</v>
       </c>
@@ -1303,7 +1314,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>6</v>
       </c>
@@ -1325,7 +1336,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>7</v>
       </c>
@@ -1347,7 +1358,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>8</v>
       </c>
@@ -1369,7 +1380,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>9</v>
       </c>
@@ -1391,7 +1402,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>10</v>
       </c>
@@ -1413,7 +1424,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>11</v>
       </c>
@@ -1435,7 +1446,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>12</v>
       </c>
@@ -1457,7 +1468,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>20</v>
       </c>
@@ -1470,8 +1481,10 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
@@ -1486,8 +1499,12 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -1511,11 +1528,19 @@
         <v>2</v>
       </c>
       <c r="I50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -1538,12 +1563,18 @@
       <c r="H51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>2</v>
       </c>
@@ -1566,12 +1597,18 @@
       <c r="H52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5">
+        <v>2</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>3</v>
       </c>
@@ -1594,12 +1631,18 @@
       <c r="H53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>8</v>
+      <c r="I53" s="5">
+        <v>1</v>
       </c>
       <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="5">
+        <v>3</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>4</v>
       </c>
@@ -1622,12 +1665,14 @@
       <c r="H54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>15</v>
+      <c r="I54" s="5">
+        <v>3</v>
       </c>
       <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>5</v>
       </c>
@@ -1648,8 +1693,10 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>6</v>
       </c>
@@ -1672,8 +1719,10 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>7</v>
       </c>
@@ -1698,8 +1747,10 @@
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>8</v>
       </c>
@@ -1724,8 +1775,10 @@
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>9</v>
       </c>
@@ -1750,8 +1803,10 @@
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>10</v>
       </c>
@@ -1772,8 +1827,10 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>11</v>
       </c>
@@ -1794,8 +1851,10 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>12</v>
       </c>
@@ -1816,6 +1875,8 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
